--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -27,12 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>日期</t>
   </si>
   <si>
     <t>用户数</t>
+  </si>
+  <si>
+    <t>交易金额</t>
+  </si>
+  <si>
+    <t>出售产品数</t>
   </si>
   <si>
     <r>
@@ -210,12 +216,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -820,7 +826,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,9 +835,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1154,12 +1159,12 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" width="10.7760416666667" style="1"/>
+    <col min="4" max="4" width="13.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1169,113 +1174,193 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5">
         <v>10</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="5">
+        <v>100</v>
+      </c>
+      <c r="D2" s="5">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>30</v>
       </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>50</v>
       </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4">
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5">
         <v>70</v>
       </c>
+      <c r="C5">
+        <v>150</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B6">
         <v>90</v>
       </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>110</v>
       </c>
+      <c r="C7">
+        <v>80</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5">
         <v>130</v>
       </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B9">
         <v>150</v>
       </c>
+      <c r="C9">
+        <v>600</v>
+      </c>
+      <c r="D9" s="5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B10">
         <v>170</v>
       </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10" s="5">
+        <v>130</v>
+      </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5">
         <v>190</v>
       </c>
+      <c r="C11">
+        <v>300</v>
+      </c>
+      <c r="D11" s="5">
+        <v>190</v>
+      </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>210</v>
       </c>
+      <c r="C12">
+        <v>400</v>
+      </c>
+      <c r="D12">
+        <v>30</v>
+      </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B13">
         <v>230</v>
       </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4">
+    <row r="14" spans="1:4">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="5">
         <v>250</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14" s="5">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
